--- a/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,233 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45376</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45383</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45530</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45586</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45593</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B30" t="n">
         <v>60</v>
       </c>
     </row>
@@ -557,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,31 +715,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -611,33 +747,97 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>108</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -839,6 +840,565 @@
       </c>
       <c r="B17" t="n">
         <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-18.07049198609675</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111.3428414981349</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.24527381582851</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119.0144614903215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-20.38128186169032</v>
+      </c>
+      <c r="D4" t="n">
+        <v>111.3598371895123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-19.07379848721462</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118.1604287254523</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-22.40831867756932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>112.104254657724</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-20.62923113842756</v>
+      </c>
+      <c r="D7" t="n">
+        <v>112.8207925625254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-19.36384117982274</v>
+      </c>
+      <c r="D8" t="n">
+        <v>117.4541956291761</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-15.22431122566123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112.9749838837237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-16.28020446137431</v>
+      </c>
+      <c r="D10" t="n">
+        <v>112.9955122723683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-21.36648739283071</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112.9691443264765</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-21.10087178760246</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113.2934721942145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>48</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-19.53877714539983</v>
+      </c>
+      <c r="D13" t="n">
+        <v>117.3035849944991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-21.54459920934859</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.0314822259014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-18.91583763104572</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.4016640807074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-19.51217848392528</v>
+      </c>
+      <c r="D16" t="n">
+        <v>115.1511471406702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-20.66723379346599</v>
+      </c>
+      <c r="D17" t="n">
+        <v>113.2928776663304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-22.90982839859288</v>
+      </c>
+      <c r="D18" t="n">
+        <v>117.1613181215433</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.14729841197099</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.3063450413549</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>48</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-17.96532671255548</v>
+      </c>
+      <c r="D20" t="n">
+        <v>117.393934248601</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>48</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-24.30628948717745</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.5593750687312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-18.14632428375663</v>
+      </c>
+      <c r="D22" t="n">
+        <v>114.1529445209453</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-20.68386566809389</v>
+      </c>
+      <c r="D23" t="n">
+        <v>110.7590449928255</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-19.25386550696296</v>
+      </c>
+      <c r="D24" t="n">
+        <v>115.1145973734048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-16.83009153234638</v>
+      </c>
+      <c r="D25" t="n">
+        <v>116.9323621455069</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>48</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-19.95989746361629</v>
+      </c>
+      <c r="D26" t="n">
+        <v>117.0286302746869</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.37427114508775</v>
+      </c>
+      <c r="D27" t="n">
+        <v>114.9458378290959</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>48</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-16.79749708897091</v>
+      </c>
+      <c r="D28" t="n">
+        <v>115.2768042445973</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>48</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-19.44239367530855</v>
+      </c>
+      <c r="D29" t="n">
+        <v>116.2163623988825</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-13.25978375999855</v>
+      </c>
+      <c r="D30" t="n">
+        <v>116.7428536400458</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-18.32050287123608</v>
+      </c>
+      <c r="D31" t="n">
+        <v>118.9047025069304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>48</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-21.77540561768442</v>
+      </c>
+      <c r="D32" t="n">
+        <v>116.5191499422867</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-13.21629307067905</v>
+      </c>
+      <c r="D33" t="n">
+        <v>114.840656727519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-21.74286045925234</v>
+      </c>
+      <c r="D34" t="n">
+        <v>112.8574079146694</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>48</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-23.97832202566746</v>
+      </c>
+      <c r="D35" t="n">
+        <v>117.7060150468031</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>48</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.36657786532348</v>
+      </c>
+      <c r="D36" t="n">
+        <v>116.8514272127114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>48</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-19.27251698956994</v>
+      </c>
+      <c r="D37" t="n">
+        <v>116.9227269324218</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>48</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-17.65447990993656</v>
+      </c>
+      <c r="D38" t="n">
+        <v>118.5386706739358</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZFT4SN_po_data.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,16 +872,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -890,12 +880,6 @@
       <c r="B2" t="n">
         <v>47</v>
       </c>
-      <c r="C2" t="n">
-        <v>-18.07049198609675</v>
-      </c>
-      <c r="D2" t="n">
-        <v>111.3428414981349</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -904,12 +888,6 @@
       <c r="B3" t="n">
         <v>47</v>
       </c>
-      <c r="C3" t="n">
-        <v>-19.24527381582851</v>
-      </c>
-      <c r="D3" t="n">
-        <v>119.0144614903215</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -918,12 +896,6 @@
       <c r="B4" t="n">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>-20.38128186169032</v>
-      </c>
-      <c r="D4" t="n">
-        <v>111.3598371895123</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -932,12 +904,6 @@
       <c r="B5" t="n">
         <v>47</v>
       </c>
-      <c r="C5" t="n">
-        <v>-19.07379848721462</v>
-      </c>
-      <c r="D5" t="n">
-        <v>118.1604287254523</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -946,12 +912,6 @@
       <c r="B6" t="n">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
-        <v>-22.40831867756932</v>
-      </c>
-      <c r="D6" t="n">
-        <v>112.104254657724</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -960,12 +920,6 @@
       <c r="B7" t="n">
         <v>47</v>
       </c>
-      <c r="C7" t="n">
-        <v>-20.62923113842756</v>
-      </c>
-      <c r="D7" t="n">
-        <v>112.8207925625254</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -974,12 +928,6 @@
       <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="C8" t="n">
-        <v>-19.36384117982274</v>
-      </c>
-      <c r="D8" t="n">
-        <v>117.4541956291761</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -988,12 +936,6 @@
       <c r="B9" t="n">
         <v>47</v>
       </c>
-      <c r="C9" t="n">
-        <v>-15.22431122566123</v>
-      </c>
-      <c r="D9" t="n">
-        <v>112.9749838837237</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1002,12 +944,6 @@
       <c r="B10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>-16.28020446137431</v>
-      </c>
-      <c r="D10" t="n">
-        <v>112.9955122723683</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1016,12 +952,6 @@
       <c r="B11" t="n">
         <v>47</v>
       </c>
-      <c r="C11" t="n">
-        <v>-21.36648739283071</v>
-      </c>
-      <c r="D11" t="n">
-        <v>112.9691443264765</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1030,12 +960,6 @@
       <c r="B12" t="n">
         <v>48</v>
       </c>
-      <c r="C12" t="n">
-        <v>-21.10087178760246</v>
-      </c>
-      <c r="D12" t="n">
-        <v>113.2934721942145</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1044,12 +968,6 @@
       <c r="B13" t="n">
         <v>48</v>
       </c>
-      <c r="C13" t="n">
-        <v>-19.53877714539983</v>
-      </c>
-      <c r="D13" t="n">
-        <v>117.3035849944991</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1058,12 +976,6 @@
       <c r="B14" t="n">
         <v>48</v>
       </c>
-      <c r="C14" t="n">
-        <v>-21.54459920934859</v>
-      </c>
-      <c r="D14" t="n">
-        <v>116.0314822259014</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1072,12 +984,6 @@
       <c r="B15" t="n">
         <v>48</v>
       </c>
-      <c r="C15" t="n">
-        <v>-18.91583763104572</v>
-      </c>
-      <c r="D15" t="n">
-        <v>116.4016640807074</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1086,12 +992,6 @@
       <c r="B16" t="n">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>-19.51217848392528</v>
-      </c>
-      <c r="D16" t="n">
-        <v>115.1511471406702</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1100,12 +1000,6 @@
       <c r="B17" t="n">
         <v>48</v>
       </c>
-      <c r="C17" t="n">
-        <v>-20.66723379346599</v>
-      </c>
-      <c r="D17" t="n">
-        <v>113.2928776663304</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1114,12 +1008,6 @@
       <c r="B18" t="n">
         <v>48</v>
       </c>
-      <c r="C18" t="n">
-        <v>-22.90982839859288</v>
-      </c>
-      <c r="D18" t="n">
-        <v>117.1613181215433</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1128,12 +1016,6 @@
       <c r="B19" t="n">
         <v>48</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.14729841197099</v>
-      </c>
-      <c r="D19" t="n">
-        <v>114.3063450413549</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1142,12 +1024,6 @@
       <c r="B20" t="n">
         <v>48</v>
       </c>
-      <c r="C20" t="n">
-        <v>-17.96532671255548</v>
-      </c>
-      <c r="D20" t="n">
-        <v>117.393934248601</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1156,12 +1032,6 @@
       <c r="B21" t="n">
         <v>48</v>
       </c>
-      <c r="C21" t="n">
-        <v>-24.30628948717745</v>
-      </c>
-      <c r="D21" t="n">
-        <v>113.5593750687312</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1170,12 +1040,6 @@
       <c r="B22" t="n">
         <v>48</v>
       </c>
-      <c r="C22" t="n">
-        <v>-18.14632428375663</v>
-      </c>
-      <c r="D22" t="n">
-        <v>114.1529445209453</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1184,12 +1048,6 @@
       <c r="B23" t="n">
         <v>48</v>
       </c>
-      <c r="C23" t="n">
-        <v>-20.68386566809389</v>
-      </c>
-      <c r="D23" t="n">
-        <v>110.7590449928255</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1198,12 +1056,6 @@
       <c r="B24" t="n">
         <v>48</v>
       </c>
-      <c r="C24" t="n">
-        <v>-19.25386550696296</v>
-      </c>
-      <c r="D24" t="n">
-        <v>115.1145973734048</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1212,12 +1064,6 @@
       <c r="B25" t="n">
         <v>48</v>
       </c>
-      <c r="C25" t="n">
-        <v>-16.83009153234638</v>
-      </c>
-      <c r="D25" t="n">
-        <v>116.9323621455069</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1226,12 +1072,6 @@
       <c r="B26" t="n">
         <v>48</v>
       </c>
-      <c r="C26" t="n">
-        <v>-19.95989746361629</v>
-      </c>
-      <c r="D26" t="n">
-        <v>117.0286302746869</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1240,12 +1080,6 @@
       <c r="B27" t="n">
         <v>48</v>
       </c>
-      <c r="C27" t="n">
-        <v>-14.37427114508775</v>
-      </c>
-      <c r="D27" t="n">
-        <v>114.9458378290959</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1254,12 +1088,6 @@
       <c r="B28" t="n">
         <v>48</v>
       </c>
-      <c r="C28" t="n">
-        <v>-16.79749708897091</v>
-      </c>
-      <c r="D28" t="n">
-        <v>115.2768042445973</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1268,12 +1096,6 @@
       <c r="B29" t="n">
         <v>48</v>
       </c>
-      <c r="C29" t="n">
-        <v>-19.44239367530855</v>
-      </c>
-      <c r="D29" t="n">
-        <v>116.2163623988825</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1282,12 +1104,6 @@
       <c r="B30" t="n">
         <v>48</v>
       </c>
-      <c r="C30" t="n">
-        <v>-13.25978375999855</v>
-      </c>
-      <c r="D30" t="n">
-        <v>116.7428536400458</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1296,12 +1112,6 @@
       <c r="B31" t="n">
         <v>48</v>
       </c>
-      <c r="C31" t="n">
-        <v>-18.32050287123608</v>
-      </c>
-      <c r="D31" t="n">
-        <v>118.9047025069304</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1310,12 +1120,6 @@
       <c r="B32" t="n">
         <v>48</v>
       </c>
-      <c r="C32" t="n">
-        <v>-21.77540561768442</v>
-      </c>
-      <c r="D32" t="n">
-        <v>116.5191499422867</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1324,12 +1128,6 @@
       <c r="B33" t="n">
         <v>48</v>
       </c>
-      <c r="C33" t="n">
-        <v>-13.21629307067905</v>
-      </c>
-      <c r="D33" t="n">
-        <v>114.840656727519</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1338,12 +1136,6 @@
       <c r="B34" t="n">
         <v>48</v>
       </c>
-      <c r="C34" t="n">
-        <v>-21.74286045925234</v>
-      </c>
-      <c r="D34" t="n">
-        <v>112.8574079146694</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1352,12 +1144,6 @@
       <c r="B35" t="n">
         <v>48</v>
       </c>
-      <c r="C35" t="n">
-        <v>-23.97832202566746</v>
-      </c>
-      <c r="D35" t="n">
-        <v>117.7060150468031</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1366,12 +1152,6 @@
       <c r="B36" t="n">
         <v>48</v>
       </c>
-      <c r="C36" t="n">
-        <v>-18.36657786532348</v>
-      </c>
-      <c r="D36" t="n">
-        <v>116.8514272127114</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1380,12 +1160,6 @@
       <c r="B37" t="n">
         <v>48</v>
       </c>
-      <c r="C37" t="n">
-        <v>-19.27251698956994</v>
-      </c>
-      <c r="D37" t="n">
-        <v>116.9227269324218</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1393,12 +1167,6 @@
       </c>
       <c r="B38" t="n">
         <v>48</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-17.65447990993656</v>
-      </c>
-      <c r="D38" t="n">
-        <v>118.5386706739358</v>
       </c>
     </row>
   </sheetData>
